--- a/doc/报表属性定义模板.xlsx
+++ b/doc/报表属性定义模板.xlsx
@@ -62,85 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报表数据（根据报表编码获取）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  msg: "请求数据成功!",
-  code: 0,
-  data: [
-    {
-      fieldname: "field_a",
-      sortid: 1,
-      measurename: "测试属性A",
-      column2: [
-        {
-          fieldname: "field_atq",
-          sortid: 1,
-          measurename: "同期",
-        },
-        {
-          fieldname: "field_abq",
-          sortid: 2,
-          measurename: "本期",
-        }
-      ]
-    },
-    {
-      fieldname: "field_b",
-      sortid: 2,
-      measurename: "测试属性B",
-      column2: [
-        {
-          fieldname: "field_btq",
-          sortid: 1,
-          measurename: "同期",
-        },
-        {
-          fieldname: "field_bbq",
-          sortid: 2,
-          measurename: "本期",
-        }
-      ]
-    },
-    {
-      fieldname: "field_c",
-      sortid: 3,
-      measurename: "测试属性C",
-      column2: [
-        {
-          fieldname: "field_btq",
-          sortid: 1,
-          measurename: "同期",
-        },
-        {
-          fieldname: "field_bbq",
-          sortid: 2,
-          measurename: "本期",
-        },
-        {
-          fieldname: "field_btb",
-          sortid: 3,
-          measurename: "同店同比",
-        },
-        {
-          fieldname: "field_qtb",
-          sortid: 4,
-          measurename: "全同比",
-        }
-      ]
-    },
-    {
-      fieldname: "field_d",
-      sortid: 4,
-      measurename: "测试属性D"
-    }
-  ]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试属性A
 (sort=1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +99,181 @@
   </si>
   <si>
     <t>{
+    content: '报表标题',
+    lineCount: '4',
+    childrenCount: '4',
+    isleaf: false,
+    children: [
+        {
+            id: '174',
+            parentid: '0',
+            zindex: '1',
+            treecode: '174',
+            sortid: '1',
+            measurelab: 'field_a',
+            measurename: '测试属性A',
+            childrenCount: '2',
+            isleaf: false,
+            children: [
+                {
+                    id: '175',
+                    parentid: '174',
+                    zindex: '2',
+                    treecode: '174.175',
+                    sortid: '1',
+                    measurelab: 'field_atq',
+                    measurename: '同期',
+                    childrenCount: '0',
+                    isleaf: true
+                },
+                {
+                    id: '176',
+                    parentid: '174',
+                    zindex: '2',
+                    treecode: '174.176',
+                    sortid: '2',
+                    measurelab: 'field_abq',
+                    measurename: '本期',
+                    childrenCount: '0',
+                    isleaf: true
+                }
+            ]
+        },
+        {
+            id: '177',
+            parentid: '0',
+            zindex: '1',
+            treecode: '177',
+            sortid: '2',
+            measurelab: 'field_b',
+            measurename: '测试属性B',
+            childrenCount: '2',
+            isleaf: false,
+            children: [
+                {
+                    id: '178',
+                    parentid: '177',
+                    zindex: '2',
+                    treecode: '177.178',
+                    sortid: '1',
+                    measurelab: 'field_btq',
+                    measurename: '同期',
+                    childrenCount: '0',
+                    isleaf: true
+                },
+                {
+                    id: '179',
+                    parentid: '177',
+                    zindex: '2',
+                    treecode: '177.179',
+                    sortid: '2',
+                    measurelab: 'field_bbq',
+                    measurename: '本期',
+                    childrenCount: '0',
+                    isleaf: true
+                }
+            ]
+        },
+        {
+            id: '180',
+            parentid: '0',
+            zindex: '1',
+            treecode: '180',
+            sortid: '3',
+            measurelab: 'field_c',
+            measurename: '测试属性C',
+            childrenCount: '4',
+            isleaf: false,
+            children: [
+                {
+                    id: '181',
+                    parentid: '180',
+                    zindex: '2',
+                    treecode: '180.181',
+                    sortid: '1',
+                    measurelab: 'field_btq',
+                    measurename: '同期',
+                    childrenCount: '0',
+                    isleaf: true
+                },
+                {
+                    id: '182',
+                    parentid: '180',
+                    zindex: '2',
+                    treecode: '180.182',
+                    sortid: '2',
+                    measurelab: 'field_bbq',
+                    measurename: '本期',
+                    childrenCount: '0',
+                    isleaf: true
+                },
+                {
+                    id: '183',
+                    parentid: '180',
+                    zindex: '2',
+                    treecode: '180.183',
+                    sortid: '3',
+                    measurelab: 'field_btb',
+                    measurename: '同店同比',
+                    childrenCount: '0',
+                    isleaf: true
+                },
+                {
+                    id: '184',
+                    parentid: '180',
+                    zindex: '2',
+                    treecode: '180.184',
+                    sortid: '4',
+                    measurelab: 'field_qtb',
+                    measurename: '全同比',
+                    childrenCount: '1',
+                    isleaf: false,
+                    children: [
+                        {
+                            id: '187',
+                            parentid: '184',
+                            zindex: '3',
+                            treecode: '180.184.187',
+                            sortid: '1',
+                            measurelab: 'null',
+                            measurename: 'null',
+                            childrenCount: '1',
+                            isleaf: false,
+                            children: [
+                                {
+                                    id: '188',
+                                    parentid: '187',
+                                    zindex: '4',
+                                    treecode: '180.184.187.188',
+                                    sortid: '1',
+                                    measurelab: 'null',
+                                    measurename: 'null',
+                                    childrenCount: '0',
+                                    isleaf: true
+                                }
+                            ]
+                        }
+                    ]
+                }
+            ]
+        },
+        {
+            id: '185',
+            parentid: '0',
+            zindex: '1',
+            treecode: '185',
+            sortid: '4',
+            measurelab: 'field_d',
+            measurename: '测试属性D-test-1',
+            childrenCount: '0',
+            isleaf: true
+        }
+    ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
   msg: "请求数据成功!",
   code: 0,
   data: [
@@ -205,6 +301,10 @@
     }
   ]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表数据（根据报表编码获取）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -534,6 +634,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -576,9 +679,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -594,7 +694,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1055,35 +1167,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:I67"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="16.625" style="1"/>
+    <col min="1" max="3" width="16.625" style="1"/>
+    <col min="4" max="6" width="20.625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="16.625" style="1"/>
     <col min="9" max="9" width="16.625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="12" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="23" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="36" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="36" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1138,7 +1252,7 @@
       <c r="H3" s="2">
         <v>10</v>
       </c>
-      <c r="I3" s="38">
+      <c r="I3" s="14">
         <v>12</v>
       </c>
     </row>
@@ -1167,7 +1281,7 @@
       <c r="H4" s="2">
         <v>11</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="14">
         <v>13</v>
       </c>
     </row>
@@ -1196,7 +1310,7 @@
       <c r="H5" s="2">
         <v>12</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="14">
         <v>14</v>
       </c>
     </row>
@@ -1223,686 +1337,1662 @@
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="28"/>
-      <c r="D8" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="14" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="19"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="19"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
     </row>
     <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
     </row>
     <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="20"/>
     </row>
     <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="19"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="20"/>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="20"/>
     </row>
     <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="19"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="20"/>
     </row>
     <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="19"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="20"/>
     </row>
     <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="19"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="19"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="20"/>
     </row>
     <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="19"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="20"/>
     </row>
     <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="19"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="20"/>
     </row>
     <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="19"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="20"/>
     </row>
     <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="17"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="19"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="20"/>
     </row>
     <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="19"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="20"/>
     </row>
     <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="19"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="20"/>
     </row>
     <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="19"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="20"/>
     </row>
     <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="19"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="20"/>
     </row>
     <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="19"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="20"/>
     </row>
     <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="19"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="20"/>
     </row>
     <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="19"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="20"/>
     </row>
     <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="19"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="20"/>
     </row>
     <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="17"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="19"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="20"/>
     </row>
     <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="19"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="20"/>
     </row>
     <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="19"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="20"/>
     </row>
     <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="19"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="20"/>
     </row>
     <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="19"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="20"/>
     </row>
     <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="19"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="20"/>
     </row>
     <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="17"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="19"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="20"/>
     </row>
     <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="17"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="19"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="20"/>
     </row>
     <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="17"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="19"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="20"/>
     </row>
     <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="19"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="20"/>
     </row>
     <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="17"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="19"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="20"/>
     </row>
     <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="17"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="19"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="20"/>
     </row>
     <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="17"/>
+      <c r="A61" s="18"/>
       <c r="B61" s="29"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="19"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="20"/>
     </row>
     <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="30"/>
       <c r="B62" s="31"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="30"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="31"/>
       <c r="E62" s="31"/>
       <c r="F62" s="32"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="19"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="20"/>
     </row>
     <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="30"/>
       <c r="B63" s="31"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="30"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="31"/>
       <c r="E63" s="31"/>
       <c r="F63" s="32"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="19"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="20"/>
     </row>
     <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="30"/>
       <c r="B64" s="31"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="30"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="31"/>
       <c r="E64" s="31"/>
       <c r="F64" s="32"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="19"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="20"/>
     </row>
     <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="30"/>
       <c r="B65" s="31"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="30"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="31"/>
       <c r="E65" s="31"/>
       <c r="F65" s="32"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="19"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="20"/>
     </row>
     <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="30"/>
       <c r="B66" s="31"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="30"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="31"/>
       <c r="E66" s="31"/>
       <c r="F66" s="32"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="19"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="20"/>
     </row>
     <row r="67" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="33"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="22"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="23"/>
+    </row>
+    <row r="68" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="30"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="32"/>
+    </row>
+    <row r="69" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="30"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="32"/>
+    </row>
+    <row r="70" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="30"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="32"/>
+    </row>
+    <row r="71" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="30"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="32"/>
+    </row>
+    <row r="72" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="30"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="32"/>
+    </row>
+    <row r="73" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="30"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="32"/>
+    </row>
+    <row r="74" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="30"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="32"/>
+    </row>
+    <row r="75" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="30"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="32"/>
+    </row>
+    <row r="76" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="30"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="32"/>
+    </row>
+    <row r="77" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="30"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="32"/>
+    </row>
+    <row r="78" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="30"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="32"/>
+    </row>
+    <row r="79" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="30"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="32"/>
+    </row>
+    <row r="80" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="30"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="32"/>
+    </row>
+    <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="30"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="32"/>
+    </row>
+    <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="30"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="32"/>
+    </row>
+    <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="30"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="32"/>
+    </row>
+    <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="30"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="32"/>
+    </row>
+    <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="30"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="32"/>
+    </row>
+    <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="30"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="32"/>
+    </row>
+    <row r="87" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="30"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="32"/>
+    </row>
+    <row r="88" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="30"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="32"/>
+    </row>
+    <row r="89" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="30"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="32"/>
+    </row>
+    <row r="90" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="30"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="32"/>
+    </row>
+    <row r="91" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="30"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="32"/>
+    </row>
+    <row r="92" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="30"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="32"/>
+    </row>
+    <row r="93" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="30"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="32"/>
+    </row>
+    <row r="94" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="30"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="32"/>
+    </row>
+    <row r="95" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="30"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="32"/>
+    </row>
+    <row r="96" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="30"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="32"/>
+    </row>
+    <row r="97" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="30"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="F97" s="32"/>
+    </row>
+    <row r="98" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="30"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="32"/>
+    </row>
+    <row r="99" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="30"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="32"/>
+    </row>
+    <row r="100" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="30"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="32"/>
+    </row>
+    <row r="101" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="30"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="32"/>
+    </row>
+    <row r="102" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="30"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="32"/>
+    </row>
+    <row r="103" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="30"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
+      <c r="F103" s="32"/>
+    </row>
+    <row r="104" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="30"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="F104" s="32"/>
+    </row>
+    <row r="105" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="30"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="31"/>
+      <c r="F105" s="32"/>
+    </row>
+    <row r="106" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="30"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="31"/>
+      <c r="F106" s="32"/>
+    </row>
+    <row r="107" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="30"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="31"/>
+      <c r="F107" s="32"/>
+    </row>
+    <row r="108" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="30"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
+      <c r="F108" s="32"/>
+    </row>
+    <row r="109" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="30"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="31"/>
+      <c r="F109" s="32"/>
+    </row>
+    <row r="110" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="30"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="31"/>
+      <c r="F110" s="32"/>
+    </row>
+    <row r="111" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="30"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="38"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="32"/>
+    </row>
+    <row r="112" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="30"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="32"/>
+    </row>
+    <row r="113" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="30"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="32"/>
+    </row>
+    <row r="114" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="30"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="31"/>
+      <c r="E114" s="31"/>
+      <c r="F114" s="32"/>
+    </row>
+    <row r="115" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="30"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="31"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="32"/>
+    </row>
+    <row r="116" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="30"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="31"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="32"/>
+    </row>
+    <row r="117" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="30"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="32"/>
+    </row>
+    <row r="118" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="30"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="32"/>
+    </row>
+    <row r="119" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="30"/>
+      <c r="B119" s="31"/>
+      <c r="C119" s="38"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="32"/>
+    </row>
+    <row r="120" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="30"/>
+      <c r="B120" s="31"/>
+      <c r="C120" s="38"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="32"/>
+    </row>
+    <row r="121" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="30"/>
+      <c r="B121" s="31"/>
+      <c r="C121" s="38"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="32"/>
+    </row>
+    <row r="122" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="30"/>
+      <c r="B122" s="31"/>
+      <c r="C122" s="38"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="32"/>
+    </row>
+    <row r="123" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="30"/>
+      <c r="B123" s="38"/>
+      <c r="C123" s="38"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="32"/>
+    </row>
+    <row r="124" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="30"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="38"/>
+      <c r="D124" s="31"/>
+      <c r="E124" s="31"/>
+      <c r="F124" s="32"/>
+    </row>
+    <row r="125" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="30"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="38"/>
+      <c r="D125" s="31"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="32"/>
+    </row>
+    <row r="126" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="30"/>
+      <c r="B126" s="31"/>
+      <c r="C126" s="38"/>
+      <c r="D126" s="31"/>
+      <c r="E126" s="31"/>
+      <c r="F126" s="32"/>
+    </row>
+    <row r="127" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="30"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="38"/>
+      <c r="D127" s="31"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="32"/>
+    </row>
+    <row r="128" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="30"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="38"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
+      <c r="F128" s="32"/>
+    </row>
+    <row r="129" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="30"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="38"/>
+      <c r="D129" s="31"/>
+      <c r="E129" s="31"/>
+      <c r="F129" s="32"/>
+    </row>
+    <row r="130" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="30"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="38"/>
+      <c r="D130" s="31"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="32"/>
+    </row>
+    <row r="131" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="30"/>
+      <c r="B131" s="31"/>
+      <c r="C131" s="38"/>
+      <c r="D131" s="31"/>
+      <c r="E131" s="31"/>
+      <c r="F131" s="32"/>
+    </row>
+    <row r="132" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="30"/>
+      <c r="B132" s="31"/>
+      <c r="C132" s="38"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="31"/>
+      <c r="F132" s="32"/>
+    </row>
+    <row r="133" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="30"/>
+      <c r="B133" s="31"/>
+      <c r="C133" s="38"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="32"/>
+    </row>
+    <row r="134" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="30"/>
+      <c r="B134" s="31"/>
+      <c r="C134" s="38"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="31"/>
+      <c r="F134" s="32"/>
+    </row>
+    <row r="135" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="30"/>
+      <c r="B135" s="31"/>
+      <c r="C135" s="38"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="32"/>
+    </row>
+    <row r="136" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="30"/>
+      <c r="B136" s="31"/>
+      <c r="C136" s="38"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="32"/>
+    </row>
+    <row r="137" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="30"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="38"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="31"/>
+      <c r="F137" s="32"/>
+    </row>
+    <row r="138" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="30"/>
+      <c r="B138" s="31"/>
+      <c r="C138" s="38"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="31"/>
+      <c r="F138" s="32"/>
+    </row>
+    <row r="139" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="30"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="38"/>
+      <c r="D139" s="31"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="32"/>
+    </row>
+    <row r="140" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="30"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="38"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="31"/>
+      <c r="F140" s="32"/>
+    </row>
+    <row r="141" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="30"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="38"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="31"/>
+      <c r="F141" s="32"/>
+    </row>
+    <row r="142" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="30"/>
+      <c r="B142" s="31"/>
+      <c r="C142" s="38"/>
+      <c r="D142" s="31"/>
+      <c r="E142" s="31"/>
+      <c r="F142" s="32"/>
+    </row>
+    <row r="143" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="30"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="38"/>
+      <c r="D143" s="31"/>
+      <c r="E143" s="31"/>
+      <c r="F143" s="32"/>
+    </row>
+    <row r="144" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="30"/>
+      <c r="B144" s="31"/>
+      <c r="C144" s="38"/>
+      <c r="D144" s="31"/>
+      <c r="E144" s="31"/>
+      <c r="F144" s="32"/>
+    </row>
+    <row r="145" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="30"/>
+      <c r="B145" s="31"/>
+      <c r="C145" s="38"/>
+      <c r="D145" s="31"/>
+      <c r="E145" s="31"/>
+      <c r="F145" s="32"/>
+    </row>
+    <row r="146" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="30"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="38"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="32"/>
+    </row>
+    <row r="147" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="30"/>
+      <c r="B147" s="31"/>
+      <c r="C147" s="38"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="31"/>
+      <c r="F147" s="32"/>
+    </row>
+    <row r="148" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="30"/>
+      <c r="B148" s="31"/>
+      <c r="C148" s="38"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="32"/>
+    </row>
+    <row r="149" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="30"/>
+      <c r="B149" s="31"/>
+      <c r="C149" s="38"/>
+      <c r="D149" s="31"/>
+      <c r="E149" s="31"/>
+      <c r="F149" s="32"/>
+    </row>
+    <row r="150" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="30"/>
+      <c r="B150" s="31"/>
+      <c r="C150" s="38"/>
+      <c r="D150" s="31"/>
+      <c r="E150" s="31"/>
+      <c r="F150" s="32"/>
+    </row>
+    <row r="151" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="30"/>
+      <c r="B151" s="31"/>
+      <c r="C151" s="38"/>
+      <c r="D151" s="31"/>
+      <c r="E151" s="31"/>
+      <c r="F151" s="32"/>
+    </row>
+    <row r="152" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="30"/>
+      <c r="B152" s="31"/>
+      <c r="C152" s="38"/>
+      <c r="D152" s="31"/>
+      <c r="E152" s="31"/>
+      <c r="F152" s="32"/>
+    </row>
+    <row r="153" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="30"/>
+      <c r="B153" s="31"/>
+      <c r="C153" s="38"/>
+      <c r="D153" s="31"/>
+      <c r="E153" s="31"/>
+      <c r="F153" s="32"/>
+    </row>
+    <row r="154" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="30"/>
+      <c r="B154" s="31"/>
+      <c r="C154" s="38"/>
+      <c r="D154" s="31"/>
+      <c r="E154" s="31"/>
+      <c r="F154" s="32"/>
+    </row>
+    <row r="155" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="30"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="38"/>
+      <c r="D155" s="31"/>
+      <c r="E155" s="31"/>
+      <c r="F155" s="32"/>
+    </row>
+    <row r="156" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="30"/>
+      <c r="B156" s="31"/>
+      <c r="C156" s="38"/>
+      <c r="D156" s="31"/>
+      <c r="E156" s="31"/>
+      <c r="F156" s="32"/>
+    </row>
+    <row r="157" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="30"/>
+      <c r="B157" s="31"/>
+      <c r="C157" s="38"/>
+      <c r="D157" s="31"/>
+      <c r="E157" s="31"/>
+      <c r="F157" s="32"/>
+    </row>
+    <row r="158" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="30"/>
+      <c r="B158" s="31"/>
+      <c r="C158" s="38"/>
+      <c r="D158" s="31"/>
+      <c r="E158" s="31"/>
+      <c r="F158" s="32"/>
+    </row>
+    <row r="159" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="30"/>
+      <c r="B159" s="31"/>
+      <c r="C159" s="38"/>
+      <c r="D159" s="31"/>
+      <c r="E159" s="31"/>
+      <c r="F159" s="32"/>
+    </row>
+    <row r="160" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="30"/>
+      <c r="B160" s="31"/>
+      <c r="C160" s="38"/>
+      <c r="D160" s="31"/>
+      <c r="E160" s="31"/>
+      <c r="F160" s="32"/>
+    </row>
+    <row r="161" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="30"/>
+      <c r="B161" s="31"/>
+      <c r="C161" s="38"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="31"/>
+      <c r="F161" s="32"/>
+    </row>
+    <row r="162" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="30"/>
+      <c r="B162" s="31"/>
+      <c r="C162" s="38"/>
+      <c r="D162" s="31"/>
+      <c r="E162" s="31"/>
+      <c r="F162" s="32"/>
+    </row>
+    <row r="163" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="30"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="38"/>
+      <c r="D163" s="31"/>
+      <c r="E163" s="31"/>
+      <c r="F163" s="32"/>
+    </row>
+    <row r="164" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="30"/>
+      <c r="B164" s="31"/>
+      <c r="C164" s="38"/>
+      <c r="D164" s="31"/>
+      <c r="E164" s="31"/>
+      <c r="F164" s="32"/>
+    </row>
+    <row r="165" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="30"/>
+      <c r="B165" s="31"/>
+      <c r="C165" s="38"/>
+      <c r="D165" s="31"/>
+      <c r="E165" s="31"/>
+      <c r="F165" s="32"/>
+    </row>
+    <row r="166" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="30"/>
+      <c r="B166" s="31"/>
+      <c r="C166" s="38"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="32"/>
+    </row>
+    <row r="167" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="30"/>
+      <c r="B167" s="31"/>
+      <c r="C167" s="38"/>
+      <c r="D167" s="31"/>
+      <c r="E167" s="31"/>
+      <c r="F167" s="32"/>
+    </row>
+    <row r="168" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="30"/>
+      <c r="B168" s="31"/>
+      <c r="C168" s="38"/>
+      <c r="D168" s="31"/>
+      <c r="E168" s="31"/>
+      <c r="F168" s="32"/>
+    </row>
+    <row r="169" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="30"/>
+      <c r="B169" s="31"/>
+      <c r="C169" s="38"/>
+      <c r="D169" s="31"/>
+      <c r="E169" s="31"/>
+      <c r="F169" s="32"/>
+    </row>
+    <row r="170" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="30"/>
+      <c r="B170" s="31"/>
+      <c r="C170" s="38"/>
+      <c r="D170" s="31"/>
+      <c r="E170" s="31"/>
+      <c r="F170" s="32"/>
+    </row>
+    <row r="171" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="30"/>
+      <c r="B171" s="31"/>
+      <c r="C171" s="38"/>
+      <c r="D171" s="31"/>
+      <c r="E171" s="31"/>
+      <c r="F171" s="32"/>
+    </row>
+    <row r="172" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="30"/>
+      <c r="B172" s="31"/>
+      <c r="C172" s="38"/>
+      <c r="D172" s="31"/>
+      <c r="E172" s="31"/>
+      <c r="F172" s="32"/>
+    </row>
+    <row r="173" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="30"/>
+      <c r="B173" s="31"/>
+      <c r="C173" s="38"/>
+      <c r="D173" s="31"/>
+      <c r="E173" s="31"/>
+      <c r="F173" s="32"/>
+    </row>
+    <row r="174" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="30"/>
+      <c r="B174" s="31"/>
+      <c r="C174" s="38"/>
+      <c r="D174" s="31"/>
+      <c r="E174" s="31"/>
+      <c r="F174" s="32"/>
+    </row>
+    <row r="175" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="30"/>
+      <c r="B175" s="31"/>
+      <c r="C175" s="38"/>
+      <c r="D175" s="31"/>
+      <c r="E175" s="31"/>
+      <c r="F175" s="32"/>
+    </row>
+    <row r="176" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="30"/>
+      <c r="B176" s="31"/>
+      <c r="C176" s="38"/>
+      <c r="D176" s="31"/>
+      <c r="E176" s="31"/>
+      <c r="F176" s="32"/>
+    </row>
+    <row r="177" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="30"/>
+      <c r="B177" s="31"/>
+      <c r="C177" s="38"/>
+      <c r="D177" s="31"/>
+      <c r="E177" s="31"/>
+      <c r="F177" s="32"/>
+    </row>
+    <row r="178" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="30"/>
+      <c r="B178" s="31"/>
+      <c r="C178" s="38"/>
+      <c r="D178" s="31"/>
+      <c r="E178" s="31"/>
+      <c r="F178" s="32"/>
+    </row>
+    <row r="179" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="30"/>
+      <c r="B179" s="31"/>
+      <c r="C179" s="38"/>
+      <c r="D179" s="31"/>
+      <c r="E179" s="31"/>
+      <c r="F179" s="32"/>
+    </row>
+    <row r="180" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="30"/>
+      <c r="B180" s="31"/>
+      <c r="C180" s="38"/>
+      <c r="D180" s="31"/>
+      <c r="E180" s="31"/>
+      <c r="F180" s="32"/>
+    </row>
+    <row r="181" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="30"/>
+      <c r="B181" s="31"/>
+      <c r="C181" s="38"/>
+      <c r="D181" s="31"/>
+      <c r="E181" s="31"/>
+      <c r="F181" s="32"/>
+    </row>
+    <row r="182" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="30"/>
+      <c r="B182" s="31"/>
+      <c r="C182" s="38"/>
+      <c r="D182" s="31"/>
+      <c r="E182" s="31"/>
+      <c r="F182" s="32"/>
+    </row>
+    <row r="183" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="30"/>
+      <c r="B183" s="31"/>
+      <c r="C183" s="38"/>
+      <c r="D183" s="31"/>
+      <c r="E183" s="31"/>
+      <c r="F183" s="32"/>
+    </row>
+    <row r="184" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="30"/>
+      <c r="B184" s="31"/>
+      <c r="C184" s="38"/>
+      <c r="D184" s="31"/>
+      <c r="E184" s="31"/>
+      <c r="F184" s="32"/>
+    </row>
+    <row r="185" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="30"/>
+      <c r="B185" s="31"/>
+      <c r="C185" s="38"/>
+      <c r="D185" s="31"/>
+      <c r="E185" s="31"/>
+      <c r="F185" s="32"/>
+    </row>
+    <row r="186" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="30"/>
+      <c r="B186" s="31"/>
+      <c r="C186" s="38"/>
+      <c r="D186" s="31"/>
+      <c r="E186" s="31"/>
+      <c r="F186" s="32"/>
+    </row>
+    <row r="187" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="30"/>
+      <c r="B187" s="31"/>
+      <c r="C187" s="38"/>
+      <c r="D187" s="31"/>
+      <c r="E187" s="31"/>
+      <c r="F187" s="32"/>
+    </row>
+    <row r="188" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="30"/>
+      <c r="B188" s="31"/>
+      <c r="C188" s="38"/>
+      <c r="D188" s="31"/>
+      <c r="E188" s="31"/>
+      <c r="F188" s="32"/>
+    </row>
+    <row r="189" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="33"/>
+      <c r="B189" s="34"/>
+      <c r="C189" s="34"/>
+      <c r="D189" s="34"/>
+      <c r="E189" s="34"/>
+      <c r="F189" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:I67"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:H1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A9:C67"/>
-    <mergeCell ref="D9:F67"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A9:D189"/>
+    <mergeCell ref="E9:F189"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
